--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2039727.475030806</v>
+        <v>-2043292.976904355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14384207.07864184</v>
+        <v>14380667.20229932</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>42.59694320820667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>2.666476559388261</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722755</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>42.63833102172802</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>97.4682403143825</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>87.15775655642693</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>188.622065147441</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>122.3324980757643</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1023,13 +1023,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>26.96566453631128</v>
       </c>
       <c r="U6" t="n">
-        <v>22.78476950182667</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5135255993418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>91.89583742014996</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>163.4804252857797</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>3.930872375981978</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6.777668308798157</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>60.22089434725336</v>
       </c>
       <c r="T11" t="n">
-        <v>96.67147652398928</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>121.8889132889597</v>
+        <v>36.94507967094727</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>77.40180093749233</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
-        <v>148.5842517203542</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -1667,10 +1667,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.234163164669368</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>121.5369434799235</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135897</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.59377642287626</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006905</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049596</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838874</v>
+        <v>24.17382596575001</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828886</v>
+        <v>52.06849973565014</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431719</v>
+        <v>70.57601873167846</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459959</v>
+        <v>55.72314698196087</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643932</v>
+        <v>41.29686219380059</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931843</v>
+        <v>41.2233042466797</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390857</v>
+        <v>42.97275566644697</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147783</v>
+        <v>53.79159358883911</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804988</v>
+        <v>41.14384575541115</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922181</v>
+        <v>18.98356133658308</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367773</v>
+        <v>9.882059701038997</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920504</v>
+        <v>88.00800320656631</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3563,7 +3563,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658103</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006894</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1179.036628553212</v>
+        <v>1298.571905726566</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.036628553212</v>
+        <v>1298.571905726566</v>
       </c>
       <c r="D2" t="n">
-        <v>793.5954997698793</v>
+        <v>913.130776943234</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>510.5472520597785</v>
       </c>
       <c r="F2" t="n">
-        <v>376.701061299857</v>
+        <v>497.6932176301603</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>84.53046211816343</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475493</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>607.9173797052185</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>1121.520058314907</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760838</v>
+        <v>1635.122736924596</v>
       </c>
       <c r="O2" t="n">
-        <v>2042.925620653166</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P2" t="n">
-        <v>2042.925620653166</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023268</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582685</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.289453582685</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="V2" t="n">
-        <v>1571.182644286203</v>
+        <v>1695.062614805965</v>
       </c>
       <c r="W2" t="n">
-        <v>1568.489233620155</v>
+        <v>1695.062614805965</v>
       </c>
       <c r="X2" t="n">
-        <v>1179.036628553212</v>
+        <v>1695.062614805965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1179.036628553212</v>
+        <v>1298.571905726566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284334</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475493</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475493</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="L3" t="n">
-        <v>176.1237484101835</v>
+        <v>638.1843148743792</v>
       </c>
       <c r="M3" t="n">
-        <v>714.3825334202756</v>
+        <v>1151.786993484068</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430368</v>
+        <v>1665.389672093757</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021349</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1848.065896552873</v>
+        <v>397.7197479617326</v>
       </c>
       <c r="C4" t="n">
-        <v>1848.065896552873</v>
+        <v>227.5146300277218</v>
       </c>
       <c r="D4" t="n">
-        <v>1848.065896552873</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="E4" t="n">
-        <v>1848.065896552873</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="F4" t="n">
-        <v>1690.739961765846</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="G4" t="n">
-        <v>1592.28719377152</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="H4" t="n">
-        <v>1436.808642733014</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="I4" t="n">
-        <v>1303.714217370092</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196194</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306136</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179936</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.5902065182</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549409</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591117</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367695</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737746</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2050.881980370324</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>1848.065896552873</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>1848.065896552873</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>1848.065896552873</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>1848.065896552873</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>1848.065896552873</v>
+        <v>854.9121313621062</v>
       </c>
       <c r="X4" t="n">
-        <v>1848.065896552873</v>
+        <v>620.8318091450892</v>
       </c>
       <c r="Y4" t="n">
-        <v>1848.065896552873</v>
+        <v>397.7197479617326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1388.839655591404</v>
+        <v>639.4480999736504</v>
       </c>
       <c r="C5" t="n">
-        <v>995.6641540943349</v>
+        <v>639.4480999736504</v>
       </c>
       <c r="D5" t="n">
-        <v>995.6641540943349</v>
+        <v>254.0069711903182</v>
       </c>
       <c r="E5" t="n">
-        <v>593.0806292108794</v>
+        <v>63.47963265754945</v>
       </c>
       <c r="F5" t="n">
-        <v>176.1861907408571</v>
+        <v>50.62559822793127</v>
       </c>
       <c r="G5" t="n">
-        <v>167.0638392692643</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="H5" t="n">
-        <v>167.0638392692643</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>607.9173797052185</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1121.520058314907</v>
       </c>
       <c r="N5" t="n">
-        <v>1989.937409596798</v>
+        <v>1635.122736924596</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757975</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737746</v>
+        <v>1685.148180317392</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737746</v>
+        <v>1429.395450751991</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737746</v>
+        <v>1429.395450751991</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737746</v>
+        <v>1429.395450751991</v>
       </c>
       <c r="X5" t="n">
-        <v>1785.330364670803</v>
+        <v>1039.942845685047</v>
       </c>
       <c r="Y5" t="n">
-        <v>1388.839655591404</v>
+        <v>1039.942845685047</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284334</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>361.242392818565</v>
       </c>
       <c r="L6" t="n">
-        <v>640.1767275127955</v>
+        <v>361.242392818565</v>
       </c>
       <c r="M6" t="n">
-        <v>714.3825334202756</v>
+        <v>407.970520326259</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430368</v>
+        <v>921.5731989359479</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021349</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734588</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>526.5052631542987</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C7" t="n">
-        <v>356.300145220288</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="D7" t="n">
-        <v>356.300145220288</v>
+        <v>841.5932941600438</v>
       </c>
       <c r="E7" t="n">
-        <v>356.300145220288</v>
+        <v>686.0344820192463</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475493</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475493</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>710.8623597192905</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>526.5052631542987</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1281.955511018961</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="C8" t="n">
-        <v>888.7800095218911</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="D8" t="n">
-        <v>795.9559313197194</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3724064362639</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.265390756362</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2200.516762364271</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1977.016159923688</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>1721.263430358287</v>
       </c>
       <c r="V8" t="n">
-        <v>2071.902861797301</v>
+        <v>1379.156621061805</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.902861797301</v>
+        <v>1008.157586030093</v>
       </c>
       <c r="X8" t="n">
-        <v>1682.450256730358</v>
+        <v>1008.157586030093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1682.450256730358</v>
+        <v>611.6668769506939</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.492043226187</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.492043226187</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.4399127684381</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="C10" t="n">
-        <v>370.2347948344274</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="D10" t="n">
-        <v>370.2347948344274</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="E10" t="n">
-        <v>370.2347948344274</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="F10" t="n">
-        <v>370.2347948344274</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>941.9138630382495</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>656.4750712801505</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="Y10" t="n">
-        <v>725.6479314597394</v>
+        <v>390.4957261009747</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1373.028620753219</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="C11" t="n">
-        <v>1051.649394402344</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>738.0045407652054</v>
+        <v>1331.657796418323</v>
       </c>
       <c r="E11" t="n">
-        <v>407.2172910279439</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>62.11912770411553</v>
+        <v>655.7723833572334</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411549</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411549</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129418</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404037</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358932</v>
       </c>
       <c r="M11" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403513</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040975</v>
       </c>
       <c r="O11" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933304</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064826</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205774</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205774</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3045.127198996428</v>
       </c>
       <c r="T11" t="n">
-        <v>2913.591149208183</v>
+        <v>3045.127198996428</v>
       </c>
       <c r="U11" t="n">
-        <v>2913.591149208183</v>
+        <v>2861.17074457722</v>
       </c>
       <c r="V11" t="n">
-        <v>2643.280615057895</v>
+        <v>2590.860210426933</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.077855172377</v>
+        <v>2291.657450541414</v>
       </c>
       <c r="X11" t="n">
-        <v>2026.421525251627</v>
+        <v>1974.001120620665</v>
       </c>
       <c r="Y11" t="n">
-        <v>1701.727091318422</v>
+        <v>1974.001120620665</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411549</v>
       </c>
       <c r="J12" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>658.8001958221562</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.6863671542446</v>
+        <v>655.0952099420613</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542446</v>
+        <v>556.6863671542444</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029533</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>389.0869922083495</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411549</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.68534223645</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="V13" t="n">
-        <v>955.5022722034678</v>
+        <v>1119.42504888904</v>
       </c>
       <c r="W13" t="n">
-        <v>832.3821577701751</v>
+        <v>1082.106786595154</v>
       </c>
       <c r="X13" t="n">
-        <v>670.0981106993521</v>
+        <v>919.8227395243314</v>
       </c>
       <c r="Y13" t="n">
-        <v>670.0981106993521</v>
+        <v>768.5069534871686</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1435.837779556535</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="C14" t="n">
-        <v>1114.45855320566</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="D14" t="n">
-        <v>800.8136995685213</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>470.0264498312596</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312596</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654567</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654567</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2861.154002545188</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2677.19754812598</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2406.887013975692</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2406.887013975692</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2089.230684054943</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1764.536250121738</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.2583719907703</v>
+        <v>487.4958349961663</v>
       </c>
       <c r="C16" t="n">
-        <v>472.8495292029534</v>
+        <v>389.0869922083495</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029534</v>
+        <v>389.0869922083495</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083498</v>
+        <v>389.0869922083495</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675166</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1321.863338219618</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1157.940561534047</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245442</v>
+        <v>1157.940561534047</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915625</v>
+        <v>963.7574915010648</v>
       </c>
       <c r="W16" t="n">
-        <v>741.8597555915625</v>
+        <v>752.2233645784364</v>
       </c>
       <c r="X16" t="n">
-        <v>579.5757085207395</v>
+        <v>752.2233645784364</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.5757085207395</v>
+        <v>600.9075785412737</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099314</v>
@@ -5507,16 +5507,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5546,16 +5546,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5598,16 +5598,16 @@
         <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291067</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
         <v>243.2367958390485</v>
@@ -5680,7 +5680,7 @@
         <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511124</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
         <v>776.8456480823215</v>
@@ -5692,31 +5692,31 @@
         <v>1059.426580900608</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099322</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803439</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924307</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829235</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,46 +5914,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343037</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879416</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296496</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,13 +6008,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,10 +6026,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,13 +6066,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,40 +6157,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655128</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296496</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6206,64 +6206,64 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388005</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958356</v>
+        <v>700.0178648958347</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1193.338156614363</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N26" t="n">
         <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
         <v>2489.561698640571</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>303.7986541368132</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>662.781010164275</v>
+        <v>662.7810101642746</v>
       </c>
       <c r="L29" t="n">
         <v>1249.152663612377</v>
@@ -6473,13 +6473,13 @@
         <v>1888.204925386531</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2509.067570753566</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645895</v>
+        <v>3042.158533375468</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.34602550699</v>
+        <v>3483.397387236563</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.242947377512</v>
@@ -6494,19 +6494,19 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174142</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420325</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.56169864057</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848359</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4798411672776</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>670.0459270655908</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1297.817576692272</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1297.817576692272</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1814.337859283253</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2219.95922799965</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879677</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6622,13 +6622,13 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904111</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993084</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108112</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835525</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766601</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901619</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042568</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076157</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076157</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076157</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>697.3191978674428</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="N33" t="n">
-        <v>1353.097169078002</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1869.617451668983</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2275.23882038538</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965116</v>
+        <v>365.6713676929729</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918656</v>
+        <v>309.3853606404871</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237451</v>
+        <v>267.6713584245269</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123123</v>
+        <v>226.0316571652545</v>
       </c>
       <c r="F34" t="n">
-        <v>204.14288975465</v>
+        <v>182.6248332597525</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834602</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431895</v>
+        <v>86.73045008374218</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076157</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507034</v>
+        <v>231.2685546898322</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515736</v>
+        <v>507.0483151386147</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458829</v>
+        <v>693.3398934768787</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041625</v>
+        <v>876.529527508088</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872941</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649519</v>
+        <v>1270.762580901357</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250206</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395499</v>
+        <v>835.7257283273699</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000922</v>
+        <v>666.3144371400725</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124401</v>
+        <v>546.1532258045806</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584482</v>
+        <v>436.9602755027491</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7084,37 +7084,37 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J37" t="n">
         <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390484</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128482</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M37" t="n">
-        <v>629.009399256734</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879432</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296512</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.202162476281</v>
@@ -7157,19 +7157,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7202,13 +7202,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L39" t="n">
         <v>545.6852136024288</v>
@@ -7263,13 +7263,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7312,7 +7312,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E40" t="n">
         <v>149.5651460634914</v>
@@ -7321,25 +7321,25 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
         <v>804.5780233445259</v>
@@ -7375,7 +7375,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7427,7 +7427,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7439,7 +7439,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
@@ -7448,13 +7448,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L42" t="n">
-        <v>346.0196676966397</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M42" t="n">
-        <v>973.7913173233209</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N42" t="n">
-        <v>1629.56928853388</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7640,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7676,13 +7676,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7722,19 +7722,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>362.7752171258636</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920153</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>277.6879399179681</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0281135391693</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837485</v>
+        <v>611.177706503543</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886033</v>
+        <v>604.1626973083978</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>269.8669267356336</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>362.7752171258636</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N5" t="n">
-        <v>564.5028797591297</v>
+        <v>667.9090757920153</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>167.3424815518171</v>
+        <v>139.5872508449625</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886033</v>
+        <v>604.1626973083978</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431201</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9472399802273</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>593.8693786663695</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684333</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8769,16 +8769,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>656.2283997181323</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,13 +9006,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>459.8553156798577</v>
+        <v>538.5873532373481</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,7 +9723,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167031</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>264.4640783312022</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118433</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>263.790719668436</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>124.6469814435369</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10911,7 +10911,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>373.1055958271594</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,13 +11136,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L42" t="n">
-        <v>262.5710112738847</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11157,7 +11157,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>33.54921276637459</v>
       </c>
       <c r="T11" t="n">
-        <v>53.51580749745629</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>87.52987236444248</v>
+        <v>172.4737059824549</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>233.1066041632746</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.603032301091318</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.043462944987</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.172667104620603</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.538708137538961e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1255410.584805723</v>
+        <v>1253605.941964442</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1255410.584805723</v>
+        <v>1253605.941964442</v>
       </c>
     </row>
     <row r="4">
@@ -26314,46 +26314,46 @@
         <v>72132.8712373427</v>
       </c>
       <c r="C2" t="n">
+        <v>72132.87123734267</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72132.87123734274</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63743.60936976022</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63743.60936976018</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72132.87123734268</v>
+      </c>
+      <c r="H2" t="n">
+        <v>72132.87123734274</v>
+      </c>
+      <c r="I2" t="n">
         <v>72132.87123734271</v>
       </c>
-      <c r="D2" t="n">
+      <c r="J2" t="n">
+        <v>72132.87123734254</v>
+      </c>
+      <c r="K2" t="n">
+        <v>72132.87123734265</v>
+      </c>
+      <c r="L2" t="n">
+        <v>72132.8712373428</v>
+      </c>
+      <c r="M2" t="n">
+        <v>72132.87123734268</v>
+      </c>
+      <c r="N2" t="n">
+        <v>72132.8712373427</v>
+      </c>
+      <c r="O2" t="n">
+        <v>72132.87123734265</v>
+      </c>
+      <c r="P2" t="n">
         <v>72132.87123734271</v>
-      </c>
-      <c r="E2" t="n">
-        <v>63743.60936976024</v>
-      </c>
-      <c r="F2" t="n">
-        <v>63743.60936976023</v>
-      </c>
-      <c r="G2" t="n">
-        <v>72132.87123734267</v>
-      </c>
-      <c r="H2" t="n">
-        <v>72132.8712373427</v>
-      </c>
-      <c r="I2" t="n">
-        <v>72132.87123734268</v>
-      </c>
-      <c r="J2" t="n">
-        <v>72132.87123734262</v>
-      </c>
-      <c r="K2" t="n">
-        <v>72132.87123734261</v>
-      </c>
-      <c r="L2" t="n">
-        <v>72132.87123734267</v>
-      </c>
-      <c r="M2" t="n">
-        <v>72132.87123734274</v>
-      </c>
-      <c r="N2" t="n">
-        <v>72132.87123734267</v>
-      </c>
-      <c r="O2" t="n">
-        <v>72132.87123734271</v>
-      </c>
-      <c r="P2" t="n">
-        <v>72132.87123734273</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062208</v>
+        <v>22558.4295340133</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740444</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668203</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972857</v>
+        <v>62456.24177539659</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962302</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.6940427713</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488214</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488214</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26427,25 +26427,25 @@
         <v>151510.2534766781</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682604</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682604</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>200019.6624326435</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326435</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481725</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481725</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984049</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551967</v>
@@ -26491,25 +26491,25 @@
         <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-409180.6908084061</v>
+        <v>-404227.6973803513</v>
       </c>
       <c r="C6" t="n">
-        <v>-226975.7425165504</v>
+        <v>-230369.040346296</v>
       </c>
       <c r="D6" t="n">
-        <v>-235296.58290212</v>
+        <v>-243032.8721255112</v>
       </c>
       <c r="E6" t="n">
-        <v>-253075.2252808029</v>
+        <v>-253284.9568274924</v>
       </c>
       <c r="F6" t="n">
-        <v>-140952.6638067584</v>
+        <v>-141162.3953534482</v>
       </c>
       <c r="G6" t="n">
-        <v>-232731.3935831194</v>
+        <v>-232731.3935831192</v>
       </c>
       <c r="H6" t="n">
-        <v>-185306.0680464373</v>
+        <v>-185306.0680464372</v>
       </c>
       <c r="I6" t="n">
-        <v>-185306.0680464373</v>
+        <v>-185306.0680464372</v>
       </c>
       <c r="J6" t="n">
-        <v>-398347.9856437227</v>
+        <v>-391831.7004891498</v>
       </c>
       <c r="K6" t="n">
-        <v>-191545.8364492204</v>
+        <v>-191545.8364492203</v>
       </c>
       <c r="L6" t="n">
-        <v>-246728.4253838415</v>
+        <v>-250777.2625943134</v>
       </c>
       <c r="M6" t="n">
-        <v>-227506.8975060603</v>
+        <v>-228558.5925172484</v>
       </c>
       <c r="N6" t="n">
         <v>-185306.0680464373</v>
       </c>
       <c r="O6" t="n">
-        <v>-213073.7620892084</v>
+        <v>-213073.7620892086</v>
       </c>
       <c r="P6" t="n">
         <v>-185306.0680464372</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014436</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26805,31 +26805,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.060736844378</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095196</v>
+        <v>844.4391950293141</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085254</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660713</v>
+        <v>78.07030221924573</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551328</v>
+        <v>17.58004954287455</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346413</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321486</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407345</v>
+        <v>117.1268713042788</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085254</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321486</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>278.2452767209676</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27430,7 +27430,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>364.6225681220071</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758531</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>185.177742386318</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>69.10327304716641</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>193.3393414917072</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>209.9356244871799</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>14.62124766269551</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>148.2483091467693</v>
       </c>
       <c r="U6" t="n">
-        <v>185.1777423863179</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.36741497218128</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>289.690880075349</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>1.367994222580222</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,16 +28020,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>162.6406409855669</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>226.58419300465</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.71049010668682</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28986,13 +28986,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634527813</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155832</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.636002634527671</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.2722376590113</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>86.65052755599478</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>86.65052755599436</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>86.27291196566205</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000711</v>
+        <v>81.10808140893477</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>94.97643844044984</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000711</v>
+        <v>106.8683420224756</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30171,10 +30171,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="M37" t="n">
-        <v>35.71049010668867</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30283,7 +30283,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155851</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>128.2979821082783</v>
+        <v>28.012500264853</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,16 +30651,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30876,19 +30876,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668857</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M46" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>209.5270473953719</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.1892414995759</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>133.967766682251</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>177.1793678467447</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>209.5270473953719</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="N5" t="n">
-        <v>415.3843884213456</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>74.95535950250516</v>
+        <v>47.20012879565058</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>351.8287486424433</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>501.1818197774805</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260872</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35489,16 +35489,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>570.8562868639657</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>374.483202825691</v>
+        <v>453.2152403831814</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434254</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.1672541168393</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36282,13 +36282,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873198</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,7 +36443,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094865</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526633</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851013</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907909</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36762,16 +36762,16 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>232.7614092820838</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>449.258967987774</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.4759251752883</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261601</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,7 +37075,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>437.9774494722498</v>
+        <v>464.4844572792975</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837689</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227378</v>
+        <v>43.49509683160149</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055074</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>283.1497498932418</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102236</v>
+        <v>110.3251060326281</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>35.05004611020358</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868731</v>
       </c>
       <c r="M37" t="n">
-        <v>223.8838015594806</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>287.7334829729927</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>313.3380164832371</v>
+        <v>213.0525346398118</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.05004611020361</v>
       </c>
       <c r="L42" t="n">
-        <v>172.5106644169664</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37947,16 +37947,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529504</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
